--- a/natmiOut/OldD0/LR-pairs_lrc2p/Sema4a-Plxnb2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Sema4a-Plxnb2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.8949631035265</v>
+        <v>26.83824466666667</v>
       </c>
       <c r="H2">
-        <v>13.8949631035265</v>
+        <v>80.514734</v>
       </c>
       <c r="I2">
-        <v>0.816831015957699</v>
+        <v>0.8882651037973995</v>
       </c>
       <c r="J2">
-        <v>0.816831015957699</v>
+        <v>0.8882651037973996</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.494060934262039</v>
+        <v>8.828998666666665</v>
       </c>
       <c r="N2">
-        <v>8.494060934262039</v>
+        <v>26.486996</v>
       </c>
       <c r="O2">
-        <v>0.1756962775117974</v>
+        <v>0.1794455804823882</v>
       </c>
       <c r="P2">
-        <v>0.1756962775117974</v>
+        <v>0.1794455804823882</v>
       </c>
       <c r="Q2">
-        <v>118.0246632806769</v>
+        <v>236.9548263776738</v>
       </c>
       <c r="R2">
-        <v>118.0246632806769</v>
+        <v>2132.593437399064</v>
       </c>
       <c r="S2">
-        <v>0.1435141688599473</v>
+        <v>0.1593952471731731</v>
       </c>
       <c r="T2">
-        <v>0.1435141688599473</v>
+        <v>0.1593952471731731</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.8949631035265</v>
+        <v>26.83824466666667</v>
       </c>
       <c r="H3">
-        <v>13.8949631035265</v>
+        <v>80.514734</v>
       </c>
       <c r="I3">
-        <v>0.816831015957699</v>
+        <v>0.8882651037973995</v>
       </c>
       <c r="J3">
-        <v>0.816831015957699</v>
+        <v>0.8882651037973996</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>19.1002042850288</v>
+        <v>19.33828433333333</v>
       </c>
       <c r="N3">
-        <v>19.1002042850288</v>
+        <v>58.014853</v>
       </c>
       <c r="O3">
-        <v>0.3950801411205081</v>
+        <v>0.3930422677296217</v>
       </c>
       <c r="P3">
-        <v>0.3950801411205081</v>
+        <v>0.3930422677296217</v>
       </c>
       <c r="Q3">
-        <v>265.3966338102939</v>
+        <v>519.005606371567</v>
       </c>
       <c r="R3">
-        <v>265.3966338102939</v>
+        <v>4671.050457344102</v>
       </c>
       <c r="S3">
-        <v>0.3227137130561757</v>
+        <v>0.3491257307416177</v>
       </c>
       <c r="T3">
-        <v>0.3227137130561757</v>
+        <v>0.3491257307416177</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.8949631035265</v>
+        <v>26.83824466666667</v>
       </c>
       <c r="H4">
-        <v>13.8949631035265</v>
+        <v>80.514734</v>
       </c>
       <c r="I4">
-        <v>0.816831015957699</v>
+        <v>0.8882651037973995</v>
       </c>
       <c r="J4">
-        <v>0.816831015957699</v>
+        <v>0.8882651037973996</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.7508736450866</v>
+        <v>21.03425566666667</v>
       </c>
       <c r="N4">
-        <v>20.7508736450866</v>
+        <v>63.102767</v>
       </c>
       <c r="O4">
-        <v>0.4292235813676945</v>
+        <v>0.4275121517879902</v>
       </c>
       <c r="P4">
-        <v>0.4292235813676945</v>
+        <v>0.4275121517879902</v>
       </c>
       <c r="Q4">
-        <v>288.3326236644187</v>
+        <v>564.5224999632198</v>
       </c>
       <c r="R4">
-        <v>288.3326236644187</v>
+        <v>5080.702499668978</v>
       </c>
       <c r="S4">
-        <v>0.350603134041576</v>
+        <v>0.3797441258826087</v>
       </c>
       <c r="T4">
-        <v>0.350603134041576</v>
+        <v>0.3797441258826088</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.22019130026345</v>
+        <v>1.239011</v>
       </c>
       <c r="H5">
-        <v>1.22019130026345</v>
+        <v>3.717033</v>
       </c>
       <c r="I5">
-        <v>0.0717303163765856</v>
+        <v>0.04100753414354395</v>
       </c>
       <c r="J5">
-        <v>0.0717303163765856</v>
+        <v>0.04100753414354396</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.494060934262039</v>
+        <v>8.828998666666665</v>
       </c>
       <c r="N5">
-        <v>8.494060934262039</v>
+        <v>26.486996</v>
       </c>
       <c r="O5">
-        <v>0.1756962775117974</v>
+        <v>0.1794455804823882</v>
       </c>
       <c r="P5">
-        <v>0.1756962775117974</v>
+        <v>0.1794455804823882</v>
       </c>
       <c r="Q5">
-        <v>10.36437925589417</v>
+        <v>10.93922646698533</v>
       </c>
       <c r="R5">
-        <v>10.36437925589417</v>
+        <v>98.45303820286799</v>
       </c>
       <c r="S5">
-        <v>0.01260274957210961</v>
+        <v>0.007358620768539596</v>
       </c>
       <c r="T5">
-        <v>0.01260274957210961</v>
+        <v>0.007358620768539598</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.22019130026345</v>
+        <v>1.239011</v>
       </c>
       <c r="H6">
-        <v>1.22019130026345</v>
+        <v>3.717033</v>
       </c>
       <c r="I6">
-        <v>0.0717303163765856</v>
+        <v>0.04100753414354395</v>
       </c>
       <c r="J6">
-        <v>0.0717303163765856</v>
+        <v>0.04100753414354396</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.1002042850288</v>
+        <v>19.33828433333333</v>
       </c>
       <c r="N6">
-        <v>19.1002042850288</v>
+        <v>58.014853</v>
       </c>
       <c r="O6">
-        <v>0.3950801411205081</v>
+        <v>0.3930422677296217</v>
       </c>
       <c r="P6">
-        <v>0.3950801411205081</v>
+        <v>0.3930422677296217</v>
       </c>
       <c r="Q6">
-        <v>23.30590310184681</v>
+        <v>23.96034701012767</v>
       </c>
       <c r="R6">
-        <v>23.30590310184681</v>
+        <v>215.643123091149</v>
       </c>
       <c r="S6">
-        <v>0.02833922351668013</v>
+        <v>0.01611769421377841</v>
       </c>
       <c r="T6">
-        <v>0.02833922351668013</v>
+        <v>0.01611769421377841</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.22019130026345</v>
+        <v>1.239011</v>
       </c>
       <c r="H7">
-        <v>1.22019130026345</v>
+        <v>3.717033</v>
       </c>
       <c r="I7">
-        <v>0.0717303163765856</v>
+        <v>0.04100753414354395</v>
       </c>
       <c r="J7">
-        <v>0.0717303163765856</v>
+        <v>0.04100753414354396</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.7508736450866</v>
+        <v>21.03425566666667</v>
       </c>
       <c r="N7">
-        <v>20.7508736450866</v>
+        <v>63.102767</v>
       </c>
       <c r="O7">
-        <v>0.4292235813676945</v>
+        <v>0.4275121517879902</v>
       </c>
       <c r="P7">
-        <v>0.4292235813676945</v>
+        <v>0.4275121517879902</v>
       </c>
       <c r="Q7">
-        <v>25.32003549460077</v>
+        <v>26.06167414781233</v>
       </c>
       <c r="R7">
-        <v>25.32003549460077</v>
+        <v>234.555067330311</v>
       </c>
       <c r="S7">
-        <v>0.03078834328779586</v>
+        <v>0.01753121916122595</v>
       </c>
       <c r="T7">
-        <v>0.03078834328779586</v>
+        <v>0.01753121916122596</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.89566280573442</v>
+        <v>2.136972666666667</v>
       </c>
       <c r="H8">
-        <v>1.89566280573442</v>
+        <v>6.410918000000001</v>
       </c>
       <c r="I8">
-        <v>0.1114386676657155</v>
+        <v>0.07072736205905639</v>
       </c>
       <c r="J8">
-        <v>0.1114386676657155</v>
+        <v>0.0707273620590564</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.494060934262039</v>
+        <v>8.828998666666665</v>
       </c>
       <c r="N8">
-        <v>8.494060934262039</v>
+        <v>26.486996</v>
       </c>
       <c r="O8">
-        <v>0.1756962775117974</v>
+        <v>0.1794455804823882</v>
       </c>
       <c r="P8">
-        <v>0.1756962775117974</v>
+        <v>0.1794455804823882</v>
       </c>
       <c r="Q8">
-        <v>16.10187538272231</v>
+        <v>18.86732882470311</v>
       </c>
       <c r="R8">
-        <v>16.10187538272231</v>
+        <v>169.805959422328</v>
       </c>
       <c r="S8">
-        <v>0.01957935907974051</v>
+        <v>0.01269171254067541</v>
       </c>
       <c r="T8">
-        <v>0.01957935907974051</v>
+        <v>0.01269171254067541</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.89566280573442</v>
+        <v>2.136972666666667</v>
       </c>
       <c r="H9">
-        <v>1.89566280573442</v>
+        <v>6.410918000000001</v>
       </c>
       <c r="I9">
-        <v>0.1114386676657155</v>
+        <v>0.07072736205905639</v>
       </c>
       <c r="J9">
-        <v>0.1114386676657155</v>
+        <v>0.0707273620590564</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.1002042850288</v>
+        <v>19.33828433333333</v>
       </c>
       <c r="N9">
-        <v>19.1002042850288</v>
+        <v>58.014853</v>
       </c>
       <c r="O9">
-        <v>0.3950801411205081</v>
+        <v>0.3930422677296217</v>
       </c>
       <c r="P9">
-        <v>0.3950801411205081</v>
+        <v>0.3930422677296217</v>
       </c>
       <c r="Q9">
-        <v>36.20754684505828</v>
+        <v>41.32538504056156</v>
       </c>
       <c r="R9">
-        <v>36.20754684505828</v>
+        <v>371.928465365054</v>
       </c>
       <c r="S9">
-        <v>0.04402720454765228</v>
+        <v>0.02779884277422553</v>
       </c>
       <c r="T9">
-        <v>0.04402720454765228</v>
+        <v>0.02779884277422554</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.89566280573442</v>
+        <v>2.136972666666667</v>
       </c>
       <c r="H10">
-        <v>1.89566280573442</v>
+        <v>6.410918000000001</v>
       </c>
       <c r="I10">
-        <v>0.1114386676657155</v>
+        <v>0.07072736205905639</v>
       </c>
       <c r="J10">
-        <v>0.1114386676657155</v>
+        <v>0.0707273620590564</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.7508736450866</v>
+        <v>21.03425566666667</v>
       </c>
       <c r="N10">
-        <v>20.7508736450866</v>
+        <v>63.102767</v>
       </c>
       <c r="O10">
-        <v>0.4292235813676945</v>
+        <v>0.4275121517879902</v>
       </c>
       <c r="P10">
-        <v>0.4292235813676945</v>
+        <v>0.4275121517879902</v>
       </c>
       <c r="Q10">
-        <v>39.3366593554853</v>
+        <v>44.94962942334512</v>
       </c>
       <c r="R10">
-        <v>39.3366593554853</v>
+        <v>404.5466648101061</v>
       </c>
       <c r="S10">
-        <v>0.04783210403832271</v>
+        <v>0.03023680674415545</v>
       </c>
       <c r="T10">
-        <v>0.04783210403832271</v>
+        <v>0.03023680674415546</v>
       </c>
     </row>
   </sheetData>
